--- a/data-raw/dataxl/D2025_11_26_0800.xlsx
+++ b/data-raw/dataxl/D2025_11_26_0800.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5052e625e7f51e50/Desktop/landslide_Ti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\ditwahLandslide\data-raw\dataxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{332C9567-5D4F-440B-A2E0-836BD25EE6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2832C0A2-FBED-4A55-868A-DD4EBAA3B893}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012BC96-0363-4298-96B8-FDBF0C927A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{82AE95EB-0EB1-4EFB-9720-F26C44B07199}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{82AE95EB-0EB1-4EFB-9720-F26C44B07199}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,8 +317,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="&quot;08:00&quot;"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -362,12 +362,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,28 +687,28 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" customWidth="1"/>
-    <col min="10" max="10" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -718,13 +717,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -740,14 +739,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>45987</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D2" t="s">
@@ -756,33 +755,33 @@
       <c r="E2" s="1">
         <v>45987</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G2" s="1">
         <v>45988</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>45987</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D3" t="s">
@@ -791,33 +790,33 @@
       <c r="E3" s="1">
         <v>45987</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G3" s="1">
         <v>45988</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>45987</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D4" t="s">
@@ -826,33 +825,33 @@
       <c r="E4" s="1">
         <v>45987</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G4" s="1">
         <v>45988</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>45987</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D5" t="s">
@@ -861,33 +860,33 @@
       <c r="E5" s="1">
         <v>45987</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G5" s="1">
         <v>45988</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>45987</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D6" t="s">
@@ -896,33 +895,33 @@
       <c r="E6" s="1">
         <v>45987</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G6" s="1">
         <v>45988</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>45987</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D7" t="s">
@@ -931,33 +930,33 @@
       <c r="E7" s="1">
         <v>45987</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G7" s="1">
         <v>45988</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>45987</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D8" t="s">
@@ -966,33 +965,33 @@
       <c r="E8" s="1">
         <v>45987</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G8" s="1">
         <v>45988</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>45987</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D9" t="s">
@@ -1001,13 +1000,13 @@
       <c r="E9" s="1">
         <v>45987</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G9" s="1">
         <v>45988</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I9" t="s">
@@ -1020,14 +1019,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>45987</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D10" t="s">
@@ -1036,13 +1035,13 @@
       <c r="E10" s="1">
         <v>45987</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G10" s="1">
         <v>45988</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I10" t="s">
@@ -1055,14 +1054,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>45987</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D11" t="s">
@@ -1071,13 +1070,13 @@
       <c r="E11" s="1">
         <v>45987</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G11" s="1">
         <v>45988</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I11" t="s">
@@ -1090,14 +1089,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>45987</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D12" t="s">
@@ -1106,13 +1105,13 @@
       <c r="E12" s="1">
         <v>45987</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G12" s="1">
         <v>45988</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I12" t="s">
@@ -1125,14 +1124,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>45987</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D13" t="s">
@@ -1141,13 +1140,13 @@
       <c r="E13" s="1">
         <v>45987</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G13" s="1">
         <v>45988</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I13" t="s">
@@ -1160,14 +1159,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>45987</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D14" t="s">
@@ -1176,13 +1175,13 @@
       <c r="E14" s="1">
         <v>45987</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G14" s="1">
         <v>45988</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I14" t="s">
@@ -1195,14 +1194,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>45987</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D15" t="s">
@@ -1211,33 +1210,33 @@
       <c r="E15" s="1">
         <v>45987</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G15" s="1">
         <v>45988</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I15" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1">
         <v>45987</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D16" t="s">
@@ -1246,33 +1245,33 @@
       <c r="E16" s="1">
         <v>45987</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G16" s="1">
         <v>45988</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I16" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>45987</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D17" t="s">
@@ -1281,33 +1280,33 @@
       <c r="E17" s="1">
         <v>45987</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G17" s="1">
         <v>45988</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I17" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>45987</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D18" t="s">
@@ -1316,33 +1315,33 @@
       <c r="E18" s="1">
         <v>45987</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G18" s="1">
         <v>45988</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" t="s">
         <v>28</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1">
         <v>45987</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D19" t="s">
@@ -1351,33 +1350,33 @@
       <c r="E19" s="1">
         <v>45987</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G19" s="1">
         <v>45988</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" t="s">
         <v>23</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1">
         <v>45987</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D20" t="s">
@@ -1386,33 +1385,33 @@
       <c r="E20" s="1">
         <v>45987</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G20" s="1">
         <v>45988</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>45987</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D21" t="s">
@@ -1421,33 +1420,33 @@
       <c r="E21" s="1">
         <v>45987</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G21" s="1">
         <v>45988</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1">
         <v>45987</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D22" t="s">
@@ -1456,13 +1455,13 @@
       <c r="E22" s="1">
         <v>45987</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G22" s="1">
         <v>45988</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I22" t="s">
@@ -1475,14 +1474,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1">
         <v>45987</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D23" t="s">
@@ -1491,13 +1490,13 @@
       <c r="E23" s="1">
         <v>45987</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G23" s="1">
         <v>45988</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I23" t="s">
@@ -1510,14 +1509,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1">
         <v>45987</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D24" t="s">
@@ -1526,13 +1525,13 @@
       <c r="E24" s="1">
         <v>45987</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G24" s="1">
         <v>45988</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I24" t="s">
@@ -1545,14 +1544,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1">
         <v>45987</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D25" t="s">
@@ -1561,13 +1560,13 @@
       <c r="E25" s="1">
         <v>45987</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G25" s="1">
         <v>45988</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I25" t="s">
@@ -1580,14 +1579,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1">
         <v>45987</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D26" t="s">
@@ -1596,13 +1595,13 @@
       <c r="E26" s="1">
         <v>45987</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G26" s="1">
         <v>45988</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I26" t="s">
@@ -1615,14 +1614,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="1">
         <v>45987</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D27" t="s">
@@ -1631,13 +1630,13 @@
       <c r="E27" s="1">
         <v>45987</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G27" s="1">
         <v>45988</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I27" t="s">
@@ -1650,14 +1649,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1">
         <v>45987</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D28" t="s">
@@ -1666,13 +1665,13 @@
       <c r="E28" s="1">
         <v>45987</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G28" s="1">
         <v>45988</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I28" t="s">
@@ -1685,14 +1684,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1">
         <v>45987</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D29" t="s">
@@ -1701,13 +1700,13 @@
       <c r="E29" s="1">
         <v>45987</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G29" s="1">
         <v>45988</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I29" t="s">
@@ -1720,14 +1719,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1">
         <v>45987</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D30" t="s">
@@ -1736,13 +1735,13 @@
       <c r="E30" s="1">
         <v>45987</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G30" s="1">
         <v>45988</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I30" t="s">
@@ -1755,14 +1754,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="1">
         <v>45987</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D31" t="s">
@@ -1771,13 +1770,13 @@
       <c r="E31" s="1">
         <v>45987</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G31" s="1">
         <v>45988</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I31" t="s">
@@ -1793,14 +1792,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1">
         <v>45987</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D32" t="s">
@@ -1809,33 +1808,33 @@
       <c r="E32" s="1">
         <v>45987</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G32" s="1">
         <v>45988</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I32" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="1">
         <v>45987</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D33" t="s">
@@ -1844,33 +1843,33 @@
       <c r="E33" s="1">
         <v>45987</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G33" s="1">
         <v>45988</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I33" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1">
         <v>45987</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D34" t="s">
@@ -1879,33 +1878,33 @@
       <c r="E34" s="1">
         <v>45987</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G34" s="1">
         <v>45988</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I34" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>51</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="1">
         <v>45987</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D35" t="s">
@@ -1914,33 +1913,33 @@
       <c r="E35" s="1">
         <v>45987</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G35" s="1">
         <v>45988</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I35" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="1">
         <v>45987</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D36" t="s">
@@ -1949,33 +1948,33 @@
       <c r="E36" s="1">
         <v>45987</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G36" s="1">
         <v>45988</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I36" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>55</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1">
         <v>45987</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D37" t="s">
@@ -1984,33 +1983,33 @@
       <c r="E37" s="1">
         <v>45987</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G37" s="1">
         <v>45988</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I37" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1">
         <v>45987</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D38" t="s">
@@ -2019,33 +2018,33 @@
       <c r="E38" s="1">
         <v>45987</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G38" s="1">
         <v>45988</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I38" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="2" t="s">
         <v>52</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="1">
         <v>45987</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D39" t="s">
@@ -2054,33 +2053,33 @@
       <c r="E39" s="1">
         <v>45987</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G39" s="1">
         <v>45988</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I39" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="1">
         <v>45987</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D40" t="s">
@@ -2089,13 +2088,13 @@
       <c r="E40" s="1">
         <v>45987</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G40" s="1">
         <v>45988</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I40" t="s">
@@ -2108,14 +2107,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="1">
         <v>45987</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D41" t="s">
@@ -2124,33 +2123,33 @@
       <c r="E41" s="1">
         <v>45987</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G41" s="1">
         <v>45988</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I41" t="s">
         <v>58</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="2" t="s">
         <v>61</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="1">
         <v>45987</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D42" t="s">
@@ -2159,33 +2158,33 @@
       <c r="E42" s="1">
         <v>45987</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G42" s="1">
         <v>45988</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I42" t="s">
         <v>58</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="2" t="s">
         <v>59</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="1">
         <v>45987</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D43" t="s">
@@ -2194,33 +2193,33 @@
       <c r="E43" s="1">
         <v>45987</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G43" s="1">
         <v>45988</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I43" t="s">
         <v>58</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="1">
         <v>45987</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D44" t="s">
@@ -2229,33 +2228,33 @@
       <c r="E44" s="1">
         <v>45987</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G44" s="1">
         <v>45988</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I44" t="s">
         <v>62</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" t="s">
         <v>63</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="1">
         <v>45987</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D45" t="s">
@@ -2264,13 +2263,13 @@
       <c r="E45" s="1">
         <v>45987</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G45" s="1">
         <v>45988</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I45" t="s">
@@ -2283,14 +2282,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="1">
         <v>45987</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D46" t="s">
@@ -2299,13 +2298,13 @@
       <c r="E46" s="1">
         <v>45987</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G46" s="1">
         <v>45988</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I46" t="s">
@@ -2318,14 +2317,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="1">
         <v>45987</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D47" t="s">
@@ -2334,13 +2333,13 @@
       <c r="E47" s="1">
         <v>45987</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G47" s="1">
         <v>45988</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I47" t="s">
@@ -2353,14 +2352,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="1">
         <v>45987</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D48" t="s">
@@ -2369,13 +2368,13 @@
       <c r="E48" s="1">
         <v>45987</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G48" s="1">
         <v>45988</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I48" t="s">
@@ -2388,14 +2387,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="1">
         <v>45987</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D49" t="s">
@@ -2404,13 +2403,13 @@
       <c r="E49" s="1">
         <v>45987</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G49" s="1">
         <v>45988</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I49" t="s">
@@ -2423,14 +2422,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1">
         <v>45987</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D50" t="s">
@@ -2439,13 +2438,13 @@
       <c r="E50" s="1">
         <v>45987</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G50" s="1">
         <v>45988</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I50" t="s">
@@ -2458,14 +2457,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1">
         <v>45987</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D51" t="s">
@@ -2474,13 +2473,13 @@
       <c r="E51" s="1">
         <v>45987</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G51" s="1">
         <v>45988</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I51" t="s">
@@ -2493,14 +2492,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="1">
         <v>45987</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D52" t="s">
@@ -2509,13 +2508,13 @@
       <c r="E52" s="1">
         <v>45987</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G52" s="1">
         <v>45988</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I52" t="s">
@@ -2528,14 +2527,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="1">
         <v>45987</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D53" t="s">
@@ -2544,13 +2543,13 @@
       <c r="E53" s="1">
         <v>45987</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G53" s="1">
         <v>45988</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I53" t="s">
@@ -2563,14 +2562,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="1">
         <v>45987</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D54" t="s">
@@ -2579,13 +2578,13 @@
       <c r="E54" s="1">
         <v>45987</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G54" s="1">
         <v>45988</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I54" t="s">
@@ -2598,14 +2597,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="1">
         <v>45987</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D55" t="s">
@@ -2614,13 +2613,13 @@
       <c r="E55" s="1">
         <v>45987</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G55" s="1">
         <v>45988</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I55" t="s">
@@ -2636,14 +2635,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="1">
         <v>45987</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D56" t="s">
@@ -2652,13 +2651,13 @@
       <c r="E56" s="1">
         <v>45987</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G56" s="1">
         <v>45988</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I56" t="s">
@@ -2674,14 +2673,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="1">
         <v>45987</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D57" t="s">
@@ -2690,13 +2689,13 @@
       <c r="E57" s="1">
         <v>45987</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G57" s="1">
         <v>45988</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I57" t="s">
@@ -2712,14 +2711,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="1">
         <v>45987</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D58" t="s">
@@ -2728,13 +2727,13 @@
       <c r="E58" s="1">
         <v>45987</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G58" s="1">
         <v>45988</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I58" t="s">
@@ -2750,14 +2749,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="1">
         <v>45987</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D59" t="s">
@@ -2766,33 +2765,33 @@
       <c r="E59" s="1">
         <v>45987</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G59" s="1">
         <v>45988</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I59" t="s">
         <v>79</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="1">
         <v>45987</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D60" t="s">
@@ -2801,33 +2800,33 @@
       <c r="E60" s="1">
         <v>45987</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G60" s="1">
         <v>45988</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I60" t="s">
         <v>79</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="2" t="s">
         <v>83</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="1">
         <v>45987</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D61" t="s">
@@ -2836,33 +2835,33 @@
       <c r="E61" s="1">
         <v>45987</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G61" s="1">
         <v>45988</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I61" t="s">
         <v>79</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="2" t="s">
         <v>80</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="1">
         <v>45987</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D62" t="s">
@@ -2871,33 +2870,33 @@
       <c r="E62" s="1">
         <v>45987</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G62" s="1">
         <v>45988</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I62" t="s">
         <v>79</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="2" t="s">
         <v>81</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
       <c r="B63" s="1">
         <v>45987</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D63" t="s">
@@ -2906,33 +2905,33 @@
       <c r="E63" s="1">
         <v>45987</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G63" s="1">
         <v>45988</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I63" t="s">
         <v>79</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="2" t="s">
         <v>85</v>
       </c>
       <c r="K63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="1">
         <v>45987</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D64" t="s">
@@ -2941,33 +2940,33 @@
       <c r="E64" s="1">
         <v>45987</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G64" s="1">
         <v>45988</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I64" t="s">
         <v>79</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" s="2" t="s">
         <v>86</v>
       </c>
       <c r="K64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="1">
         <v>45987</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D65" t="s">
@@ -2976,33 +2975,33 @@
       <c r="E65" s="1">
         <v>45987</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G65" s="1">
         <v>45988</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I65" t="s">
         <v>79</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="2" t="s">
         <v>87</v>
       </c>
       <c r="K65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="1">
         <v>45987</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D66" t="s">
@@ -3011,33 +3010,33 @@
       <c r="E66" s="1">
         <v>45987</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G66" s="1">
         <v>45988</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I66" t="s">
         <v>79</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="2" t="s">
         <v>88</v>
       </c>
       <c r="K66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="1">
         <v>45987</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D67" t="s">
@@ -3046,33 +3045,33 @@
       <c r="E67" s="1">
         <v>45987</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G67" s="1">
         <v>45988</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I67" t="s">
         <v>79</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="2" t="s">
         <v>89</v>
       </c>
       <c r="K67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="1">
         <v>45987</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D68" t="s">
@@ -3081,33 +3080,33 @@
       <c r="E68" s="1">
         <v>45987</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G68" s="1">
         <v>45988</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I68" t="s">
         <v>79</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="1">
         <v>45987</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D69" t="s">
@@ -3116,33 +3115,33 @@
       <c r="E69" s="1">
         <v>45987</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G69" s="1">
         <v>45988</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I69" t="s">
         <v>79</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J69" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="1">
         <v>45987</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D70" t="s">
@@ -3151,33 +3150,33 @@
       <c r="E70" s="1">
         <v>45987</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G70" s="1">
         <v>45988</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I70" t="s">
         <v>79</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="2" t="s">
         <v>79</v>
       </c>
       <c r="K70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="1">
         <v>45987</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="D71" t="s">
@@ -3186,19 +3185,19 @@
       <c r="E71" s="1">
         <v>45987</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="G71" s="1">
         <v>45988</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="I71" t="s">
         <v>79</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J71" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K71">
@@ -3208,5 +3207,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>